--- a/relatorios.xlsx
+++ b/relatorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nilson</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Besa dormiu</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/relatorios.xlsx
+++ b/relatorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,18 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gustavo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>As lições ocorreram como no plano de aula, com exceção de um atrito de um aluno que foi encaminhado a secretaria</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/relatorios.xlsx
+++ b/relatorios.xlsx
@@ -55,10 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,14 +437,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>professor</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>relatorio</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>usuario</t>
         </is>
       </c>
     </row>
@@ -478,6 +486,23 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>As lições ocorreram como no plano de aula, com exceção de um atrito de um aluno que foi encaminhado a secretaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Eulalia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tarefas SP realizadas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>admin</t>
         </is>
       </c>
     </row>

--- a/relatorios.xlsx
+++ b/relatorios.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,23 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gustavo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tudo ocorreu bem</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>proftec</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
